--- a/data/processed-german-db.xlsx
+++ b/data/processed-german-db.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Temp20181205023249" sheetId="1" r:id="rId1"/>
+    <sheet name="Temp20181205023249" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +408,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:EQ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
+      <c r="AR1" t="inlineStr"/>
+      <c r="AS1" t="inlineStr"/>
+      <c r="AT1" t="inlineStr"/>
+      <c r="AU1" t="inlineStr"/>
+      <c r="AV1" t="inlineStr"/>
+      <c r="AW1" t="inlineStr"/>
+      <c r="AX1" t="inlineStr"/>
+      <c r="AY1" t="inlineStr"/>
+      <c r="AZ1" t="inlineStr"/>
+      <c r="BA1" t="inlineStr"/>
+      <c r="BB1" t="inlineStr"/>
+      <c r="BC1" t="inlineStr"/>
+      <c r="BD1" t="inlineStr"/>
+      <c r="BE1" t="inlineStr"/>
+      <c r="BF1" t="inlineStr"/>
+      <c r="BG1" t="inlineStr"/>
+      <c r="BH1" t="inlineStr"/>
+      <c r="BI1" t="inlineStr"/>
+      <c r="BJ1" t="inlineStr"/>
+      <c r="BK1" t="inlineStr"/>
+      <c r="BL1" t="inlineStr"/>
+      <c r="BM1" t="inlineStr"/>
+      <c r="BN1" t="inlineStr"/>
+      <c r="BO1" t="inlineStr"/>
+      <c r="BP1" t="inlineStr"/>
+      <c r="BQ1" t="inlineStr"/>
+      <c r="BR1" t="inlineStr"/>
+      <c r="BS1" t="inlineStr"/>
+      <c r="BT1" t="inlineStr"/>
+      <c r="BU1" t="inlineStr"/>
+      <c r="BV1" t="inlineStr"/>
+      <c r="BW1" t="inlineStr"/>
+      <c r="BX1" t="inlineStr"/>
+      <c r="BY1" t="inlineStr"/>
+      <c r="BZ1" t="inlineStr"/>
+      <c r="CA1" t="inlineStr"/>
+      <c r="CB1" t="inlineStr"/>
+      <c r="CC1" t="inlineStr"/>
+      <c r="CD1" t="inlineStr"/>
+      <c r="CE1" t="inlineStr"/>
+      <c r="CF1" t="inlineStr"/>
+      <c r="CG1" t="inlineStr"/>
+      <c r="CH1" t="inlineStr"/>
+      <c r="CI1" t="inlineStr"/>
+      <c r="CJ1" t="inlineStr"/>
+      <c r="CK1" t="inlineStr"/>
+      <c r="CL1" t="inlineStr"/>
+      <c r="CM1" t="inlineStr"/>
+      <c r="CN1" t="inlineStr"/>
+      <c r="CO1" t="inlineStr"/>
+      <c r="CP1" t="inlineStr"/>
+      <c r="CQ1" t="inlineStr"/>
+      <c r="CR1" t="inlineStr"/>
+      <c r="CS1" t="inlineStr"/>
+      <c r="CT1" t="inlineStr"/>
+      <c r="CU1" t="inlineStr"/>
+      <c r="CV1" t="inlineStr"/>
+      <c r="CW1" t="inlineStr"/>
+      <c r="CX1" t="inlineStr"/>
+      <c r="CY1" t="inlineStr"/>
+      <c r="CZ1" t="inlineStr"/>
+      <c r="DA1" t="inlineStr"/>
+      <c r="DB1" t="inlineStr"/>
+      <c r="DC1" t="inlineStr"/>
+      <c r="DD1" t="inlineStr"/>
+      <c r="DE1" t="inlineStr"/>
+      <c r="DF1" t="inlineStr"/>
+      <c r="DG1" t="inlineStr"/>
+      <c r="DH1" t="inlineStr"/>
+      <c r="DI1" t="inlineStr"/>
+      <c r="DJ1" t="inlineStr"/>
+      <c r="DK1" t="inlineStr"/>
+      <c r="DL1" t="inlineStr"/>
+      <c r="DM1" t="inlineStr"/>
+      <c r="DN1" t="inlineStr"/>
+      <c r="DO1" t="inlineStr"/>
+      <c r="DP1" t="inlineStr"/>
+      <c r="DQ1" t="inlineStr"/>
+      <c r="DR1" t="inlineStr"/>
+      <c r="DS1" t="inlineStr"/>
+      <c r="DT1" t="inlineStr"/>
+      <c r="DU1" t="inlineStr"/>
+      <c r="DV1" t="inlineStr"/>
+      <c r="DW1" t="inlineStr"/>
+      <c r="DX1" t="inlineStr"/>
+      <c r="DY1" t="inlineStr"/>
+      <c r="DZ1" t="inlineStr"/>
+      <c r="EA1" t="inlineStr"/>
+      <c r="EB1" t="inlineStr"/>
+      <c r="EC1" t="inlineStr"/>
+      <c r="ED1" t="inlineStr"/>
+      <c r="EE1" t="inlineStr"/>
+      <c r="EF1" t="inlineStr"/>
+      <c r="EG1" t="inlineStr"/>
+      <c r="EH1" t="inlineStr"/>
+      <c r="EI1" t="inlineStr"/>
+      <c r="EJ1" t="inlineStr"/>
+      <c r="EK1" t="inlineStr"/>
+      <c r="EL1" t="inlineStr"/>
+      <c r="EM1" t="inlineStr"/>
+      <c r="EN1" t="inlineStr"/>
+      <c r="EO1" t="inlineStr"/>
+      <c r="EP1" t="inlineStr"/>
+      <c r="EQ1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -1119,6 +1491,7 @@
           <t>6.550 mg</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>23.750 mg</t>
@@ -1129,6 +1502,7 @@
           <t>81 mg</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>1.164 mg</t>
@@ -1199,6 +1573,8 @@
           <t>5,0 µg</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
           <t>Werte pro 100g</t>
@@ -1289,6 +1665,13 @@
           <t>1 µg</t>
         </is>
       </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>300 mg</t>
@@ -1299,6 +1682,20 @@
           <t>300 mg</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr">
         <is>
           <t>1.225 mg</t>
@@ -1334,6 +1731,7 @@
           <t>773 mg</t>
         </is>
       </c>
+      <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr">
         <is>
           <t>719 mg</t>
@@ -1344,11 +1742,19 @@
           <t>1.651 mg</t>
         </is>
       </c>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="inlineStr">
         <is>
           <t>Werte pro 100g</t>
         </is>
       </c>
+      <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr">
         <is>
           <t>65 mg</t>
@@ -1394,6 +1800,7 @@
           <t>41 mg</t>
         </is>
       </c>
+      <c r="CS4" t="inlineStr"/>
       <c r="CT4" t="inlineStr">
         <is>
           <t>81.624 mg</t>
@@ -1414,6 +1821,16 @@
           <t>4.400 mg</t>
         </is>
       </c>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
       <c r="DH4" t="inlineStr">
         <is>
           <t>102 mg</t>
@@ -1424,11 +1841,14 @@
           <t>285 mg</t>
         </is>
       </c>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
       <c r="DL4" t="inlineStr">
         <is>
           <t>3 mg</t>
         </is>
       </c>
+      <c r="DM4" t="inlineStr"/>
       <c r="DN4" t="inlineStr">
         <is>
           <t>37 mg</t>
@@ -1444,6 +1864,7 @@
           <t>106 mg</t>
         </is>
       </c>
+      <c r="DQ4" t="inlineStr"/>
       <c r="DR4" t="inlineStr">
         <is>
           <t>2.927 mg</t>
@@ -1454,11 +1875,18 @@
           <t>299 mg</t>
         </is>
       </c>
+      <c r="DT4" t="inlineStr"/>
       <c r="DU4" t="inlineStr">
         <is>
           <t>12 mg</t>
         </is>
       </c>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
       <c r="EB4" t="inlineStr">
         <is>
           <t>3 mg</t>
@@ -1474,6 +1902,8 @@
           <t>2 mg</t>
         </is>
       </c>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
       <c r="EG4" t="inlineStr">
         <is>
           <t>1 mg</t>
@@ -1484,6 +1914,8 @@
           <t>908 mg</t>
         </is>
       </c>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
       <c r="EK4" t="inlineStr">
         <is>
           <t>1.210 mg</t>
@@ -1499,6 +1931,10 @@
           <t>51 mg</t>
         </is>
       </c>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1561,6 +1997,7 @@
           <t>1.180 mg</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>Werte pro 100g</t>
@@ -1581,6 +2018,8 @@
           <t>741 µg</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
           <t>300 µg</t>
@@ -1596,11 +2035,15 @@
           <t>1.000 µg</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
           <t>10,0 µg</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
           <t>Werte pro 100g</t>
@@ -1646,6 +2089,9 @@
           <t>1 mg</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>2 mg</t>
@@ -1706,6 +2152,13 @@
           <t>2.143 mg</t>
         </is>
       </c>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr">
         <is>
           <t>180 mg</t>
@@ -1736,6 +2189,10 @@
           <t>13 mg</t>
         </is>
       </c>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr">
         <is>
           <t>810 mg</t>
@@ -1861,6 +2318,7 @@
           <t>1.553 mg</t>
         </is>
       </c>
+      <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr">
         <is>
           <t>271 mg</t>
@@ -1876,6 +2334,7 @@
           <t>63.464 mg</t>
         </is>
       </c>
+      <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr">
         <is>
           <t>576 mg</t>
@@ -1891,11 +2350,30 @@
           <t>810 mg</t>
         </is>
       </c>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
       <c r="DI5" t="inlineStr">
         <is>
           <t>100 mg</t>
         </is>
       </c>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
       <c r="DR5" t="inlineStr">
         <is>
           <t>1.100 mg</t>
@@ -1906,6 +2384,13 @@
           <t>190 mg</t>
         </is>
       </c>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
       <c r="EA5" t="inlineStr">
         <is>
           <t>3 mg</t>
@@ -1916,21 +2401,33 @@
           <t>3 mg</t>
         </is>
       </c>
+      <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr">
         <is>
           <t>4 mg</t>
         </is>
       </c>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
       <c r="EH5" t="inlineStr">
         <is>
           <t>2 mg</t>
         </is>
       </c>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
       <c r="EK5" t="inlineStr">
         <is>
           <t>3 mg</t>
         </is>
       </c>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1968,6 +2465,7 @@
           <t>6.550 mg</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>23.750 mg</t>
@@ -1978,6 +2476,7 @@
           <t>81 mg</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>1.164 mg</t>
@@ -2048,6 +2547,8 @@
           <t>5,0 µg</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
           <t>Werte pro 100g</t>
@@ -2088,6 +2589,9 @@
           <t>61 mg</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr">
         <is>
           <t>4 mg</t>
@@ -2123,6 +2627,13 @@
           <t>1 µg</t>
         </is>
       </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>300 mg</t>
@@ -2133,6 +2644,23 @@
           <t>300 mg</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr">
         <is>
           <t>347 mg</t>
@@ -2168,11 +2696,20 @@
           <t>1.651 mg</t>
         </is>
       </c>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="inlineStr">
         <is>
           <t>Werte pro 100g</t>
         </is>
       </c>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr">
         <is>
           <t>6.188 mg</t>
@@ -2193,6 +2730,7 @@
           <t>335 mg</t>
         </is>
       </c>
+      <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr">
         <is>
           <t>1.869 mg</t>
@@ -2233,6 +2771,10 @@
           <t>4.400 mg</t>
         </is>
       </c>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
       <c r="DB6" t="inlineStr">
         <is>
           <t>155 mg</t>
@@ -2253,6 +2795,8 @@
           <t>158 mg</t>
         </is>
       </c>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
       <c r="DH6" t="inlineStr">
         <is>
           <t>102 mg</t>
@@ -2263,11 +2807,14 @@
           <t>285 mg</t>
         </is>
       </c>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
       <c r="DL6" t="inlineStr">
         <is>
           <t>3 mg</t>
         </is>
       </c>
+      <c r="DM6" t="inlineStr"/>
       <c r="DN6" t="inlineStr">
         <is>
           <t>37 mg</t>
@@ -2283,6 +2830,7 @@
           <t>106 mg</t>
         </is>
       </c>
+      <c r="DQ6" t="inlineStr"/>
       <c r="DR6" t="inlineStr">
         <is>
           <t>2.927 mg</t>
@@ -2293,11 +2841,18 @@
           <t>299 mg</t>
         </is>
       </c>
+      <c r="DT6" t="inlineStr"/>
       <c r="DU6" t="inlineStr">
         <is>
           <t>12 mg</t>
         </is>
       </c>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
       <c r="EB6" t="inlineStr">
         <is>
           <t>3 mg</t>
@@ -2313,6 +2868,8 @@
           <t>2 mg</t>
         </is>
       </c>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
       <c r="EG6" t="inlineStr">
         <is>
           <t>1 mg</t>
@@ -2323,6 +2880,8 @@
           <t>908 mg</t>
         </is>
       </c>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
       <c r="EK6" t="inlineStr">
         <is>
           <t>1.210 mg</t>
@@ -2338,8 +2897,12 @@
           <t>51 mg</t>
         </is>
       </c>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>